--- a/Programmi20192020/text_5bs/virtuale/diario.xlsx
+++ b/Programmi20192020/text_5bs/virtuale/diario.xlsx
@@ -16,15 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>attività</t>
-  </si>
-  <si>
     <t>Esercitazione sulla PD propedeutica all'analisi per Indici</t>
+  </si>
+  <si>
+    <t>Lezioni in aula virtuale</t>
+  </si>
+  <si>
+    <t>durata</t>
+  </si>
+  <si>
+    <t>orario</t>
+  </si>
+  <si>
+    <t>11.00-14.00</t>
+  </si>
+  <si>
+    <t>3 h</t>
+  </si>
+  <si>
+    <t>materiali</t>
+  </si>
+  <si>
+    <t>Fogli di google, esercizio</t>
   </si>
 </sst>
 </file>
@@ -357,32 +375,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
